--- a/lectures/9/Cross-tab worksheet.xlsx
+++ b/lectures/9/Cross-tab worksheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159BF881-8A8F-4C8D-85DD-948D05D91E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8013A538-CA12-4BC9-BAA1-E7C49E786279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="2790" windowWidth="21600" windowHeight="11385" tabRatio="747" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="131">
   <si>
     <t>Frequency Table</t>
   </si>
@@ -412,15 +412,9 @@
     <t>1-2 days a week</t>
   </si>
   <si>
-    <t>*10</t>
-  </si>
-  <si>
     <t>3-4 days a week</t>
   </si>
   <si>
-    <t>*5</t>
-  </si>
-  <si>
     <t>Frequency of library use</t>
   </si>
   <si>
@@ -428,18 +422,6 @@
   </si>
   <si>
     <t>5-6 days a week</t>
-  </si>
-  <si>
-    <t>*20</t>
-  </si>
-  <si>
-    <t>Note: I modified the original level of measurement.</t>
-  </si>
-  <si>
-    <t>middle score</t>
-  </si>
-  <si>
-    <t># of students</t>
   </si>
   <si>
     <r>
@@ -1497,6 +1479,383 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="478116216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$A$39:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>as a place to study</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>as a place to meet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>obtain material for class work</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive analysis technique'!$B$39:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C66-405A-B0FB-570FE06ACCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$A$39:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>as a place to study</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>as a place to meet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>obtain material for class work</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive analysis technique'!$C$39:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C66-405A-B0FB-570FE06ACCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1022669936"/>
+        <c:axId val="1022670768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1022669936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1022670768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1022670768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1022669936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3831,7 +4190,603 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$A$15:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non-Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive analysis technique'!$B$15:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B259-4C85-ACD3-7D1B203D07C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1015904960"/>
+        <c:axId val="1015905376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1015904960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015905376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1015905376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015904960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>as a place to study</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>as a place to meet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>obtain material for class work</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive analysis technique'!$B$32:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BF6-4A7A-BB89-37D184D2DF1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="627509520"/>
+        <c:axId val="627517840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="627509520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627517840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="627517840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627509520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4111,6 +5066,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4614,8 +5649,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4819,23 +5854,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4940,8 +5974,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5073,20 +6107,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5119,8 +6152,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5324,22 +6357,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5444,8 +6478,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5577,19 +6611,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5622,7 +6657,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6125,7 +7160,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6628,7 +7663,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7131,7 +8166,1516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8079,15 +10623,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>513959</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>285359</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8109,7 +10653,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="6610350"/>
+          <a:off x="4838700" y="8277225"/>
           <a:ext cx="3123809" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8117,6 +10661,114 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA912EE-384A-40BA-B18E-5C28176BF646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C29EC97-1AB1-46C0-A384-9EAB5112BE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61EAA3F9-4A7A-4008-80E3-9A54974D071A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9482,7 +12134,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
@@ -9544,27 +12196,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="41" customFormat="1" ht="45">
       <c r="A1" s="41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -9584,7 +12236,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>54</v>
@@ -9604,7 +12256,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -9617,21 +12269,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC97C014-A5B1-4C3A-99C9-0BA9DBFDEB34}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>6.16</v>
@@ -9639,7 +12291,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>6.37</v>
@@ -9647,12 +12299,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -9663,10 +12315,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC1DD1-2A5C-42C2-B90F-79217246D8D4}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9949,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -9957,7 +12609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -9965,12 +12617,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:3">
       <c r="A36" s="42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -9978,7 +12630,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:3">
       <c r="B38">
         <v>1</v>
       </c>
@@ -9986,7 +12638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -9997,7 +12649,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -10008,7 +12660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -10019,8 +12671,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="56" customFormat="1"/>
-    <row r="45" spans="1:11">
+    <row r="43" spans="1:3" s="56" customFormat="1"/>
+    <row r="45" spans="1:3">
       <c r="A45" s="57" t="s">
         <v>75</v>
       </c>
@@ -10028,7 +12680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:3">
       <c r="A46" s="42" t="s">
         <v>77</v>
       </c>
@@ -10036,49 +12688,31 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:3">
       <c r="A47" s="42" t="s">
         <v>98</v>
       </c>
       <c r="B47" t="s">
         <v>110</v>
       </c>
-      <c r="H47" t="s">
-        <v>111</v>
-      </c>
-      <c r="K47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>81</v>
       </c>
-      <c r="H48" t="s">
-        <v>113</v>
-      </c>
-      <c r="K48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" t="s">
-        <v>117</v>
-      </c>
-      <c r="K49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -10088,48 +12722,32 @@
       <c r="D50">
         <v>1.5</v>
       </c>
-      <c r="G50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51">
         <v>3.5</v>
       </c>
-      <c r="I51" t="s">
-        <v>120</v>
-      </c>
-      <c r="K51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52">
         <v>5.5</v>
       </c>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
-      <c r="I52">
-        <v>80</v>
-      </c>
-      <c r="J52" s="42"/>
-      <c r="K52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -10139,14 +12757,8 @@
       <c r="D53">
         <v>1.5</v>
       </c>
-      <c r="I53">
-        <v>20</v>
-      </c>
-      <c r="K53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="42" t="s">
         <v>109</v>
       </c>
@@ -10154,21 +12766,15 @@
         <f>AVERAGE(D49:D53)</f>
         <v>3</v>
       </c>
-      <c r="I54">
-        <v>90</v>
-      </c>
-      <c r="K54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/lectures/9/Cross-tab worksheet.xlsx
+++ b/lectures/9/Cross-tab worksheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8013A538-CA12-4BC9-BAA1-E7C49E786279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1398629E-0DF8-4D51-8817-547CBC46A7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="747" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
   <si>
     <t>Frequency Table</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1898,6 +1901,287 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$A$61:$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1-2 days a week</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-4 days a week</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-6 days a week</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive analysis technique'!$B$61:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31C8-4B54-8B07-D3AD9C9E9D0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="950983647"/>
+        <c:axId val="950971583"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="950983647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950971583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="950971583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950983647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4826,6 +5110,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5650,6 +5974,509 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10771,6 +11598,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692D79F2-8CDA-4D6D-87DD-1A23D3B75A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12315,10 +13178,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC1DD1-2A5C-42C2-B90F-79217246D8D4}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12777,6 +13640,38 @@
         <v>117</v>
       </c>
     </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{857ACB56-F1BA-4678-A90A-CA0F2AD4BB86}"/>
